--- a/src/main/resources/InputSheet.xlsx
+++ b/src/main/resources/InputSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">ap_customer_name</t>
   </si>
@@ -34,19 +34,19 @@
     <t xml:space="preserve">ap_password_check</t>
   </si>
   <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venkatesh A</t>
   </si>
   <si>
-    <t xml:space="preserve">test@gmail.com</t>
+    <t xml:space="preserve">+1 6464945454</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Venky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venkat</t>
+    <t xml:space="preserve">click</t>
   </si>
 </sst>
 </file>
@@ -170,13 +170,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.71"/>
@@ -198,56 +198,31 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="test@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="test@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
